--- a/import/raw_data/mapping__subsector__sector.xlsx
+++ b/import/raw_data/mapping__subsector__sector.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_env\workspace\micat\back_end\import\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB7AE6F-FF96-487E-BFED-C0510C068C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4500" yWindow="4500" windowWidth="46080" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -46,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,20 +388,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -424,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,7 +423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -446,7 +434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -457,7 +445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -468,7 +456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -479,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -490,7 +478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -501,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -512,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -523,7 +511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -534,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -545,7 +533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -556,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -567,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -578,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -589,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -600,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -611,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -622,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -633,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -644,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -655,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -666,25 +654,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
         <v>5</v>
       </c>
     </row>
@@ -694,6 +671,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010081027A5C4AB68A40A5017F28CDCC410C" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f1f428d4bdb6f67b400b210b48125618">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca47701c-f272-4f81-9665-1c7dbebc0776" xmlns:ns3="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8189f6f0f7c839d9d0d3622fd62ec189" ns2:_="" ns3:_="">
     <xsd:import namespace="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
@@ -946,15 +932,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -968,6 +945,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4070B3B7-9CC6-4F8A-8DF2-DB09EE15075D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D55FB58-4AF9-4652-92FA-E7278BC95B44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -986,14 +971,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4070B3B7-9CC6-4F8A-8DF2-DB09EE15075D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F2E4B1-7B26-44B9-8562-599A2D456232}">
   <ds:schemaRefs>
